--- a/2 - Données/donneessup.xlsx
+++ b/2 - Données/donneessup.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwanrahis/Documents/Cours/MS/S2/Data Storytelling/Data-storytelling/2 - Données/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwanrahis/Documents/Cours/MS/S2/Data Storytelling/Data-storytelling/2 - Données/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4718524-56F4-264A-AEFB-E5BDA8312E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306327B-6279-5A47-B48E-E2395926C371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="480" windowWidth="24640" windowHeight="13200" xr2:uid="{3730E533-E5FF-5244-B34B-795AA1663F2F}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24640" windowHeight="14200" xr2:uid="{3730E533-E5FF-5244-B34B-795AA1663F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,6 +140,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD579"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -179,12 +184,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -205,7 +207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
+              <c:f>Sheet1!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,35 +220,87 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1424-3546-BE83-182BA57E4013}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1424-3546-BE83-182BA57E4013}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$14:$A$15</c:f>
+              <c:f>Sheet1!$A$21:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -260,7 +314,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$15</c:f>
+              <c:f>Sheet1!$B$21:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -315,10 +369,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -346,7 +397,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -650,11 +701,815 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New York</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C814-0946-95D0-3864B0BC5710}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C814-0946-95D0-3864B0BC5710}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C814-0946-95D0-3864B0BC5710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A66-C14C-8644-88B1ECE921F7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4A66-C14C-8644-88B1ECE921F7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4A66-C14C-8644-88B1ECE921F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Milan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C513-7148-ADD4-C953351F3142}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C513-7148-ADD4-C953351F3142}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C513-7148-ADD4-C953351F3142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -727,34 +1582,139 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -769,7 +1729,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -777,7 +1737,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -792,10 +1752,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -804,9 +1761,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -829,43 +1785,507 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -903,511 +2323,6 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1745,6 +2660,1410 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1753,16 +4072,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1789,16 +4108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1818,6 +4137,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5936C5-247A-D949-970F-F13BD4438A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC40A877-CED2-E449-B79A-9BD0346E8A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAD395E-2A10-9643-BA5F-A69482FD1450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2123,20 +4556,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4EB52D-FC34-4B4C-B6DD-161AAF915417}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +4577,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +4585,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2160,7 +4593,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2168,7 +4601,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +4609,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +4617,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2192,7 +4625,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2200,56 +4633,56 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <v>58</v>
       </c>
-      <c r="C14">
+      <c r="C21">
         <v>66</v>
       </c>
-      <c r="D14">
+      <c r="D21">
         <v>70</v>
       </c>
-      <c r="E14">
+      <c r="E21">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B22">
         <v>42</v>
       </c>
-      <c r="C15">
+      <c r="C22">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D22">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="E22">
         <v>12</v>
       </c>
     </row>
